--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.21766042689464</v>
+        <v>1.459403333333333</v>
       </c>
       <c r="N2">
-        <v>1.21766042689464</v>
+        <v>4.37821</v>
       </c>
       <c r="O2">
-        <v>0.7799661130458141</v>
+        <v>0.5447757294020447</v>
       </c>
       <c r="P2">
-        <v>0.7799661130458141</v>
+        <v>0.5447757294020447</v>
       </c>
       <c r="Q2">
-        <v>94.32391009469345</v>
+        <v>155.9789700214989</v>
       </c>
       <c r="R2">
-        <v>94.32391009469345</v>
+        <v>1403.81073019349</v>
       </c>
       <c r="S2">
-        <v>0.09255646559860993</v>
+        <v>0.08219294571966872</v>
       </c>
       <c r="T2">
-        <v>0.09255646559860993</v>
+        <v>0.08219294571966872</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.34351050928822</v>
+        <v>0.7127086666666665</v>
       </c>
       <c r="N3">
-        <v>0.34351050928822</v>
+        <v>2.138126</v>
       </c>
       <c r="O3">
-        <v>0.2200338869541859</v>
+        <v>0.2660446052618481</v>
       </c>
       <c r="P3">
-        <v>0.2200338869541859</v>
+        <v>0.2660446052618481</v>
       </c>
       <c r="Q3">
-        <v>26.60943369681176</v>
+        <v>76.17329713654375</v>
       </c>
       <c r="R3">
-        <v>26.60943369681176</v>
+        <v>685.5596742288939</v>
       </c>
       <c r="S3">
-        <v>0.02611082526249097</v>
+        <v>0.04013943466846322</v>
       </c>
       <c r="T3">
-        <v>0.02611082526249097</v>
+        <v>0.04013943466846322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.21766042689464</v>
+        <v>0.050157</v>
       </c>
       <c r="N4">
-        <v>1.21766042689464</v>
+        <v>0.150471</v>
       </c>
       <c r="O4">
-        <v>0.7799661130458141</v>
+        <v>0.01872293672045312</v>
       </c>
       <c r="P4">
-        <v>0.7799661130458141</v>
+        <v>0.01872293672045312</v>
       </c>
       <c r="Q4">
-        <v>93.72354900791711</v>
+        <v>5.360709421910999</v>
       </c>
       <c r="R4">
-        <v>93.72354900791711</v>
+        <v>48.24638479719899</v>
       </c>
       <c r="S4">
-        <v>0.09196735409740973</v>
+        <v>0.002824819900229608</v>
       </c>
       <c r="T4">
-        <v>0.09196735409740973</v>
+        <v>0.002824819900229608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.34351050928822</v>
+        <v>0.05659433333333333</v>
       </c>
       <c r="N5">
-        <v>0.34351050928822</v>
+        <v>0.169783</v>
       </c>
       <c r="O5">
-        <v>0.2200338869541859</v>
+        <v>0.02112590708647309</v>
       </c>
       <c r="P5">
-        <v>0.2200338869541859</v>
+        <v>0.02112590708647309</v>
       </c>
       <c r="Q5">
-        <v>26.44006764194102</v>
+        <v>6.048722529791888</v>
       </c>
       <c r="R5">
-        <v>26.44006764194102</v>
+        <v>54.43850276812699</v>
       </c>
       <c r="S5">
-        <v>0.02594463279426655</v>
+        <v>0.003187367646394876</v>
       </c>
       <c r="T5">
-        <v>0.02594463279426655</v>
+        <v>0.003187367646394876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>121.711490137238</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H6">
-        <v>121.711490137238</v>
+        <v>320.635769</v>
       </c>
       <c r="I6">
-        <v>0.186451981700417</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J6">
-        <v>0.186451981700417</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.21766042689464</v>
+        <v>0.4000433333333333</v>
       </c>
       <c r="N6">
-        <v>1.21766042689464</v>
+        <v>1.20013</v>
       </c>
       <c r="O6">
-        <v>0.7799661130458141</v>
+        <v>0.1493308215291811</v>
       </c>
       <c r="P6">
-        <v>0.7799661130458141</v>
+        <v>0.1493308215291811</v>
       </c>
       <c r="Q6">
-        <v>148.203265038492</v>
+        <v>42.75606727221888</v>
       </c>
       <c r="R6">
-        <v>148.203265038492</v>
+        <v>384.8046054499699</v>
       </c>
       <c r="S6">
-        <v>0.1454262274365635</v>
+        <v>0.02253026235528812</v>
       </c>
       <c r="T6">
-        <v>0.1454262274365635</v>
+        <v>0.02253026235528812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H7">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J7">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.34351050928822</v>
+        <v>1.459403333333333</v>
       </c>
       <c r="N7">
-        <v>0.34351050928822</v>
+        <v>4.37821</v>
       </c>
       <c r="O7">
-        <v>0.2200338869541859</v>
+        <v>0.5447757294020447</v>
       </c>
       <c r="P7">
-        <v>0.2200338869541859</v>
+        <v>0.5447757294020447</v>
       </c>
       <c r="Q7">
-        <v>41.8091759632708</v>
+        <v>112.7139852692767</v>
       </c>
       <c r="R7">
-        <v>41.8091759632708</v>
+        <v>1014.42586742349</v>
       </c>
       <c r="S7">
-        <v>0.04102575426385349</v>
+        <v>0.05939450986122219</v>
       </c>
       <c r="T7">
-        <v>0.04102575426385349</v>
+        <v>0.0593945098612222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.36676684056</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>140.36676684056</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.2150303296163119</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.2150303296163119</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.21766042689464</v>
+        <v>0.7127086666666665</v>
       </c>
       <c r="N8">
-        <v>1.21766042689464</v>
+        <v>2.138126</v>
       </c>
       <c r="O8">
-        <v>0.7799661130458141</v>
+        <v>0.2660446052618481</v>
       </c>
       <c r="P8">
-        <v>0.7799661130458141</v>
+        <v>0.2660446052618481</v>
       </c>
       <c r="Q8">
-        <v>170.9190572328967</v>
+        <v>55.04457357409932</v>
       </c>
       <c r="R8">
-        <v>170.9190572328967</v>
+        <v>495.4011621668939</v>
       </c>
       <c r="S8">
-        <v>0.167716370377795</v>
+        <v>0.02900567715836735</v>
       </c>
       <c r="T8">
-        <v>0.167716370377795</v>
+        <v>0.02900567715836736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.36676684056</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>140.36676684056</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.2150303296163119</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.2150303296163119</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.34351050928822</v>
+        <v>0.050157</v>
       </c>
       <c r="N9">
-        <v>0.34351050928822</v>
+        <v>0.150471</v>
       </c>
       <c r="O9">
-        <v>0.2200338869541859</v>
+        <v>0.01872293672045312</v>
       </c>
       <c r="P9">
-        <v>0.2200338869541859</v>
+        <v>0.01872293672045312</v>
       </c>
       <c r="Q9">
-        <v>48.2174595645416</v>
+        <v>3.873771718911</v>
       </c>
       <c r="R9">
-        <v>48.2174595645416</v>
+        <v>34.863945470199</v>
       </c>
       <c r="S9">
-        <v>0.04731395923851692</v>
+        <v>0.002041279722381513</v>
       </c>
       <c r="T9">
-        <v>0.04731395923851692</v>
+        <v>0.002041279722381514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>194.159493575321</v>
+        <v>77.232923</v>
       </c>
       <c r="H10">
-        <v>194.159493575321</v>
+        <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.2974363579169756</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J10">
-        <v>0.2974363579169756</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.21766042689464</v>
+        <v>0.05659433333333333</v>
       </c>
       <c r="N10">
-        <v>1.21766042689464</v>
+        <v>0.169783</v>
       </c>
       <c r="O10">
-        <v>0.7799661130458141</v>
+        <v>0.02112590708647309</v>
       </c>
       <c r="P10">
-        <v>0.7799661130458141</v>
+        <v>0.02112590708647309</v>
       </c>
       <c r="Q10">
-        <v>236.4203318325725</v>
+        <v>4.370945788569666</v>
       </c>
       <c r="R10">
-        <v>236.4203318325725</v>
+        <v>39.33851209712699</v>
       </c>
       <c r="S10">
-        <v>0.2319902799630071</v>
+        <v>0.002303265048448541</v>
       </c>
       <c r="T10">
-        <v>0.2319902799630071</v>
+        <v>0.002303265048448541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>194.159493575321</v>
+        <v>77.232923</v>
       </c>
       <c r="H11">
-        <v>194.159493575321</v>
+        <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.2974363579169756</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J11">
-        <v>0.2974363579169756</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.34351050928822</v>
+        <v>0.4000433333333333</v>
       </c>
       <c r="N11">
-        <v>0.34351050928822</v>
+        <v>1.20013</v>
       </c>
       <c r="O11">
-        <v>0.2200338869541859</v>
+        <v>0.1493308215291811</v>
       </c>
       <c r="P11">
-        <v>0.2200338869541859</v>
+        <v>0.1493308215291811</v>
       </c>
       <c r="Q11">
-        <v>66.6958265212014</v>
+        <v>30.89651595999667</v>
       </c>
       <c r="R11">
-        <v>66.6958265212014</v>
+        <v>278.06864363997</v>
       </c>
       <c r="S11">
-        <v>0.0654460779539686</v>
+        <v>0.01628088490952891</v>
       </c>
       <c r="T11">
-        <v>0.0654460779539686</v>
+        <v>0.01628088490952892</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.1054306722281</v>
+        <v>136.676337</v>
       </c>
       <c r="H12">
-        <v>42.1054306722281</v>
+        <v>410.029011</v>
       </c>
       <c r="I12">
-        <v>0.06450205301351841</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J12">
-        <v>0.06450205301351841</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.21766042689464</v>
+        <v>1.459403333333333</v>
       </c>
       <c r="N12">
-        <v>1.21766042689464</v>
+        <v>4.37821</v>
       </c>
       <c r="O12">
-        <v>0.7799661130458141</v>
+        <v>0.5447757294020447</v>
       </c>
       <c r="P12">
-        <v>0.7799661130458141</v>
+        <v>0.5447757294020447</v>
       </c>
       <c r="Q12">
-        <v>51.27011668692794</v>
+        <v>199.46590180559</v>
       </c>
       <c r="R12">
-        <v>51.27011668692794</v>
+        <v>1795.19311625031</v>
       </c>
       <c r="S12">
-        <v>0.050309415572429</v>
+        <v>0.1051083363210561</v>
       </c>
       <c r="T12">
-        <v>0.050309415572429</v>
+        <v>0.1051083363210561</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>136.676337</v>
+      </c>
+      <c r="H13">
+        <v>410.029011</v>
+      </c>
+      <c r="I13">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J13">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.7127086666666665</v>
+      </c>
+      <c r="N13">
+        <v>2.138126</v>
+      </c>
+      <c r="O13">
+        <v>0.2660446052618481</v>
+      </c>
+      <c r="P13">
+        <v>0.2660446052618481</v>
+      </c>
+      <c r="Q13">
+        <v>97.41040990815399</v>
+      </c>
+      <c r="R13">
+        <v>876.6936891733859</v>
+      </c>
+      <c r="S13">
+        <v>0.05133030775243635</v>
+      </c>
+      <c r="T13">
+        <v>0.05133030775243635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>136.676337</v>
+      </c>
+      <c r="H14">
+        <v>410.029011</v>
+      </c>
+      <c r="I14">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J14">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.050157</v>
+      </c>
+      <c r="N14">
+        <v>0.150471</v>
+      </c>
+      <c r="O14">
+        <v>0.01872293672045312</v>
+      </c>
+      <c r="P14">
+        <v>0.01872293672045312</v>
+      </c>
+      <c r="Q14">
+        <v>6.855275034909001</v>
+      </c>
+      <c r="R14">
+        <v>61.697475314181</v>
+      </c>
+      <c r="S14">
+        <v>0.003612379596813682</v>
+      </c>
+      <c r="T14">
+        <v>0.003612379596813682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>136.676337</v>
+      </c>
+      <c r="H15">
+        <v>410.029011</v>
+      </c>
+      <c r="I15">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J15">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.05659433333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.169783</v>
+      </c>
+      <c r="O15">
+        <v>0.02112590708647309</v>
+      </c>
+      <c r="P15">
+        <v>0.02112590708647309</v>
+      </c>
+      <c r="Q15">
+        <v>7.735106174957001</v>
+      </c>
+      <c r="R15">
+        <v>69.615955574613</v>
+      </c>
+      <c r="S15">
+        <v>0.004076005642853556</v>
+      </c>
+      <c r="T15">
+        <v>0.004076005642853556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>136.676337</v>
+      </c>
+      <c r="H16">
+        <v>410.029011</v>
+      </c>
+      <c r="I16">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J16">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4000433333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.20013</v>
+      </c>
+      <c r="O16">
+        <v>0.1493308215291811</v>
+      </c>
+      <c r="P16">
+        <v>0.1493308215291811</v>
+      </c>
+      <c r="Q16">
+        <v>54.67645744127</v>
+      </c>
+      <c r="R16">
+        <v>492.08811697143</v>
+      </c>
+      <c r="S16">
+        <v>0.02881169876935758</v>
+      </c>
+      <c r="T16">
+        <v>0.02881169876935758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H17">
+        <v>430.367156</v>
+      </c>
+      <c r="I17">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J17">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.459403333333333</v>
+      </c>
+      <c r="N17">
+        <v>4.37821</v>
+      </c>
+      <c r="O17">
+        <v>0.5447757294020447</v>
+      </c>
+      <c r="P17">
+        <v>0.5447757294020447</v>
+      </c>
+      <c r="Q17">
+        <v>209.3597540078622</v>
+      </c>
+      <c r="R17">
+        <v>1884.23778607076</v>
+      </c>
+      <c r="S17">
+        <v>0.1103218907951477</v>
+      </c>
+      <c r="T17">
+        <v>0.1103218907951477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H18">
+        <v>430.367156</v>
+      </c>
+      <c r="I18">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J18">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.7127086666666665</v>
+      </c>
+      <c r="N18">
+        <v>2.138126</v>
+      </c>
+      <c r="O18">
+        <v>0.2660446052618481</v>
+      </c>
+      <c r="P18">
+        <v>0.2660446052618481</v>
+      </c>
+      <c r="Q18">
+        <v>102.2421339766284</v>
+      </c>
+      <c r="R18">
+        <v>920.1792057896558</v>
+      </c>
+      <c r="S18">
+        <v>0.0538763794057996</v>
+      </c>
+      <c r="T18">
+        <v>0.05387637940579961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H19">
+        <v>430.367156</v>
+      </c>
+      <c r="I19">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J19">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.050157</v>
+      </c>
+      <c r="N19">
+        <v>0.150471</v>
+      </c>
+      <c r="O19">
+        <v>0.01872293672045312</v>
+      </c>
+      <c r="P19">
+        <v>0.01872293672045312</v>
+      </c>
+      <c r="Q19">
+        <v>7.195308481163999</v>
+      </c>
+      <c r="R19">
+        <v>64.75777633047599</v>
+      </c>
+      <c r="S19">
+        <v>0.003791559845196248</v>
+      </c>
+      <c r="T19">
+        <v>0.003791559845196248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H20">
+        <v>430.367156</v>
+      </c>
+      <c r="I20">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J20">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05659433333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.169783</v>
+      </c>
+      <c r="O20">
+        <v>0.02112590708647309</v>
+      </c>
+      <c r="P20">
+        <v>0.02112590708647309</v>
+      </c>
+      <c r="Q20">
+        <v>8.118780760794222</v>
+      </c>
+      <c r="R20">
+        <v>73.069026847148</v>
+      </c>
+      <c r="S20">
+        <v>0.00427818254146616</v>
+      </c>
+      <c r="T20">
+        <v>0.00427818254146616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="H13">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="I13">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="J13">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.34351050928822</v>
-      </c>
-      <c r="N13">
-        <v>0.34351050928822</v>
-      </c>
-      <c r="O13">
-        <v>0.2200338869541859</v>
-      </c>
-      <c r="P13">
-        <v>0.2200338869541859</v>
-      </c>
-      <c r="Q13">
-        <v>14.46365793401692</v>
-      </c>
-      <c r="R13">
-        <v>14.46365793401692</v>
-      </c>
-      <c r="S13">
-        <v>0.01419263744108942</v>
-      </c>
-      <c r="T13">
-        <v>0.01419263744108942</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H21">
+        <v>430.367156</v>
+      </c>
+      <c r="I21">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J21">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4000433333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.20013</v>
+      </c>
+      <c r="O21">
+        <v>0.1493308215291811</v>
+      </c>
+      <c r="P21">
+        <v>0.1493308215291811</v>
+      </c>
+      <c r="Q21">
+        <v>57.38850388114221</v>
+      </c>
+      <c r="R21">
+        <v>516.4965349302799</v>
+      </c>
+      <c r="S21">
+        <v>0.03024080864096984</v>
+      </c>
+      <c r="T21">
+        <v>0.03024080864096984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H22">
+        <v>595.794632</v>
+      </c>
+      <c r="I22">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J22">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.459403333333333</v>
+      </c>
+      <c r="N22">
+        <v>4.37821</v>
+      </c>
+      <c r="O22">
+        <v>0.5447757294020447</v>
+      </c>
+      <c r="P22">
+        <v>0.5447757294020447</v>
+      </c>
+      <c r="Q22">
+        <v>289.8348906409689</v>
+      </c>
+      <c r="R22">
+        <v>2608.51401576872</v>
+      </c>
+      <c r="S22">
+        <v>0.1527281750279271</v>
+      </c>
+      <c r="T22">
+        <v>0.1527281750279271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H23">
+        <v>595.794632</v>
+      </c>
+      <c r="I23">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J23">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.7127086666666665</v>
+      </c>
+      <c r="N23">
+        <v>2.138126</v>
+      </c>
+      <c r="O23">
+        <v>0.2660446052618481</v>
+      </c>
+      <c r="P23">
+        <v>0.2660446052618481</v>
+      </c>
+      <c r="Q23">
+        <v>141.5426659266257</v>
+      </c>
+      <c r="R23">
+        <v>1273.883993339632</v>
+      </c>
+      <c r="S23">
+        <v>0.07458575124531751</v>
+      </c>
+      <c r="T23">
+        <v>0.07458575124531752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H24">
+        <v>595.794632</v>
+      </c>
+      <c r="I24">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J24">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.050157</v>
+      </c>
+      <c r="N24">
+        <v>0.150471</v>
+      </c>
+      <c r="O24">
+        <v>0.01872293672045312</v>
+      </c>
+      <c r="P24">
+        <v>0.01872293672045312</v>
+      </c>
+      <c r="Q24">
+        <v>9.961090452408</v>
+      </c>
+      <c r="R24">
+        <v>89.649814071672</v>
+      </c>
+      <c r="S24">
+        <v>0.005248985595626345</v>
+      </c>
+      <c r="T24">
+        <v>0.005248985595626345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H25">
+        <v>595.794632</v>
+      </c>
+      <c r="I25">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J25">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.05659433333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.169783</v>
+      </c>
+      <c r="O25">
+        <v>0.02112590708647309</v>
+      </c>
+      <c r="P25">
+        <v>0.02112590708647309</v>
+      </c>
+      <c r="Q25">
+        <v>11.23953333387289</v>
+      </c>
+      <c r="R25">
+        <v>101.155800004856</v>
+      </c>
+      <c r="S25">
+        <v>0.005922659657889079</v>
+      </c>
+      <c r="T25">
+        <v>0.005922659657889079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H26">
+        <v>595.794632</v>
+      </c>
+      <c r="I26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4000433333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.20013</v>
+      </c>
+      <c r="O26">
+        <v>0.1493308215291811</v>
+      </c>
+      <c r="P26">
+        <v>0.1493308215291811</v>
+      </c>
+      <c r="Q26">
+        <v>79.44789018912888</v>
+      </c>
+      <c r="R26">
+        <v>715.03101170216</v>
+      </c>
+      <c r="S26">
+        <v>0.04186497785539436</v>
+      </c>
+      <c r="T26">
+        <v>0.04186497785539436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H27">
+        <v>136.651993</v>
+      </c>
+      <c r="I27">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J27">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.459403333333333</v>
+      </c>
+      <c r="N27">
+        <v>4.37821</v>
+      </c>
+      <c r="O27">
+        <v>0.5447757294020447</v>
+      </c>
+      <c r="P27">
+        <v>0.5447757294020447</v>
+      </c>
+      <c r="Q27">
+        <v>66.47679136361445</v>
+      </c>
+      <c r="R27">
+        <v>598.2911222725301</v>
+      </c>
+      <c r="S27">
+        <v>0.03502987167702288</v>
+      </c>
+      <c r="T27">
+        <v>0.03502987167702288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H28">
+        <v>136.651993</v>
+      </c>
+      <c r="I28">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J28">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.7127086666666665</v>
+      </c>
+      <c r="N28">
+        <v>2.138126</v>
+      </c>
+      <c r="O28">
+        <v>0.2660446052618481</v>
+      </c>
+      <c r="P28">
+        <v>0.2660446052618481</v>
+      </c>
+      <c r="Q28">
+        <v>32.46435324279089</v>
+      </c>
+      <c r="R28">
+        <v>292.179179185118</v>
+      </c>
+      <c r="S28">
+        <v>0.01710705503146405</v>
+      </c>
+      <c r="T28">
+        <v>0.01710705503146405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H29">
+        <v>136.651993</v>
+      </c>
+      <c r="I29">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J29">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.050157</v>
+      </c>
+      <c r="N29">
+        <v>0.150471</v>
+      </c>
+      <c r="O29">
+        <v>0.01872293672045312</v>
+      </c>
+      <c r="P29">
+        <v>0.01872293672045312</v>
+      </c>
+      <c r="Q29">
+        <v>2.284684670967</v>
+      </c>
+      <c r="R29">
+        <v>20.562162038703</v>
+      </c>
+      <c r="S29">
+        <v>0.001203912060205726</v>
+      </c>
+      <c r="T29">
+        <v>0.001203912060205726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H30">
+        <v>136.651993</v>
+      </c>
+      <c r="I30">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J30">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.05659433333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.169783</v>
+      </c>
+      <c r="O30">
+        <v>0.02112590708647309</v>
+      </c>
+      <c r="P30">
+        <v>0.02112590708647309</v>
+      </c>
+      <c r="Q30">
+        <v>2.577909480835444</v>
+      </c>
+      <c r="R30">
+        <v>23.201185327519</v>
+      </c>
+      <c r="S30">
+        <v>0.001358426549420876</v>
+      </c>
+      <c r="T30">
+        <v>0.001358426549420876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H31">
+        <v>136.651993</v>
+      </c>
+      <c r="I31">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J31">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.4000433333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.20013</v>
+      </c>
+      <c r="O31">
+        <v>0.1493308215291811</v>
+      </c>
+      <c r="P31">
+        <v>0.1493308215291811</v>
+      </c>
+      <c r="Q31">
+        <v>18.22223959545444</v>
+      </c>
+      <c r="R31">
+        <v>164.00015635909</v>
+      </c>
+      <c r="S31">
+        <v>0.009602188998642245</v>
+      </c>
+      <c r="T31">
+        <v>0.009602188998642245</v>
       </c>
     </row>
   </sheetData>
